--- a/docs/StructureDefinition-SequencingExperimentExtension.xlsx
+++ b/docs/StructureDefinition-SequencingExperimentExtension.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/SequencingExperimentExtension</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/SequencingExperimentExtension</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SequencingExperimentExtension.xlsx
+++ b/docs/StructureDefinition-SequencingExperimentExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>7</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-SequencingExperimentExtension.xlsx
+++ b/docs/StructureDefinition-SequencingExperimentExtension.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$41</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,9 +282,6 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>RunName</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>Extension.extension:RunName.id</t>
@@ -619,6 +622,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -955,7 +973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1058,7 +1076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>86</v>
       </c>
@@ -1174,7 +1192,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>76</v>
@@ -1189,13 +1207,13 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1234,19 +1252,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1258,34 +1276,34 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>74</v>
@@ -1294,13 +1312,13 @@
         <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1351,7 +1369,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1363,13 +1381,13 @@
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>97</v>
       </c>
@@ -1472,7 +1490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>99</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>102</v>
@@ -1547,19 +1565,19 @@
         <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1571,13 +1589,13 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>105</v>
       </c>
@@ -1622,7 +1640,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>74</v>
@@ -1682,7 +1700,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>113</v>
       </c>
@@ -1785,7 +1803,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>120</v>
       </c>
@@ -1800,13 +1818,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
@@ -1815,13 +1833,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1872,7 +1890,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1884,13 +1902,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>122</v>
       </c>
@@ -1993,7 +2011,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>123</v>
       </c>
@@ -2021,7 +2039,7 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>102</v>
@@ -2068,19 +2086,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC12" t="s" s="2">
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2092,13 +2110,13 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>124</v>
       </c>
@@ -2203,7 +2221,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>125</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>126</v>
       </c>
@@ -2321,13 +2339,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>74</v>
@@ -2336,13 +2354,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2393,7 +2411,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2405,13 +2423,13 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>128</v>
       </c>
@@ -2514,7 +2532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>129</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>102</v>
@@ -2589,19 +2607,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2613,13 +2631,13 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>130</v>
       </c>
@@ -2724,7 +2742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>131</v>
       </c>
@@ -2827,7 +2845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>132</v>
       </c>
@@ -2842,7 +2860,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
@@ -2857,13 +2875,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2914,7 +2932,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -2926,13 +2944,13 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>134</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>135</v>
       </c>
@@ -3063,7 +3081,7 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>102</v>
@@ -3110,19 +3128,19 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC22" t="s" s="2">
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3134,13 +3152,13 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>136</v>
       </c>
@@ -3245,7 +3263,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>137</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>138</v>
       </c>
@@ -3369,7 +3387,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>74</v>
@@ -3378,13 +3396,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3435,7 +3453,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3447,13 +3465,13 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>140</v>
       </c>
@@ -3556,7 +3574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>141</v>
       </c>
@@ -3584,7 +3602,7 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>102</v>
@@ -3631,19 +3649,19 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -3655,13 +3673,13 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>142</v>
       </c>
@@ -3766,7 +3784,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>143</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>144</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>74</v>
@@ -3899,13 +3917,13 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3956,7 +3974,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -3968,13 +3986,13 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>146</v>
       </c>
@@ -4077,7 +4095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>147</v>
       </c>
@@ -4105,7 +4123,7 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>102</v>
@@ -4152,19 +4170,19 @@
         <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4176,13 +4194,13 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>148</v>
       </c>
@@ -4287,7 +4305,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>149</v>
       </c>
@@ -4390,7 +4408,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>150</v>
       </c>
@@ -4411,7 +4429,7 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>74</v>
@@ -4420,13 +4438,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4477,7 +4495,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -4489,13 +4507,13 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>152</v>
       </c>
@@ -4598,7 +4616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>153</v>
       </c>
@@ -4626,7 +4644,7 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>102</v>
@@ -4673,19 +4691,19 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -4697,13 +4715,13 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>154</v>
       </c>
@@ -4808,7 +4826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>155</v>
       </c>
@@ -4911,7 +4929,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>111</v>
       </c>
@@ -5016,7 +5034,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>118</v>
       </c>
@@ -5120,6 +5138,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK41">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI40">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>